--- a/Sample_Bank_Data/DEC 2022.xlsx
+++ b/Sample_Bank_Data/DEC 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F8C513-F285-4704-A829-C66F418150D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{B2F8C513-F285-4704-A829-C66F418150D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FAD9AD6-D8A6-4B2A-9241-01B5D48ED0AB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="304">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -520,370 +520,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1701,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E16"/>
     </sheetView>
   </sheetViews>
@@ -1925,33 +1670,33 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="M1" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1962,13 +1707,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1979,13 +1724,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -1996,13 +1741,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -2013,13 +1758,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -2030,13 +1775,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2047,13 +1792,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -2064,13 +1809,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -2081,13 +1826,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -2098,13 +1843,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2115,13 +1860,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -2132,13 +1877,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2149,13 +1894,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -2166,13 +1911,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -2183,13 +1928,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -2200,13 +1945,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -2217,13 +1962,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2234,13 +1979,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2251,13 +1996,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2268,13 +2013,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2285,7 +2030,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2296,13 +2041,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2310,10 +2055,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2321,7 +2066,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2344,21 +2089,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2372,7 +2117,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2386,7 +2131,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2400,7 +2145,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2414,7 +2159,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2428,7 +2173,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2442,7 +2187,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2456,7 +2201,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2470,7 +2215,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2484,7 +2229,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2498,7 +2243,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2512,7 +2257,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2526,7 +2271,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2540,7 +2285,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2554,7 +2299,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2568,7 +2313,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2582,7 +2327,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2596,7 +2341,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2610,7 +2355,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2624,7 +2369,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2638,7 +2383,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -8710,8 +8455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9574,7 +9319,7 @@
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9606,7 +9351,7 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9638,7 +9383,7 @@
         <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9670,7 +9415,7 @@
         <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9702,7 +9447,7 @@
         <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9734,7 +9479,7 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9766,7 +9511,7 @@
         <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9798,7 +9543,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9830,7 +9575,7 @@
         <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9862,7 +9607,7 @@
         <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9894,7 +9639,7 @@
         <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9926,7 +9671,7 @@
         <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9958,7 +9703,7 @@
         <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9990,7 +9735,7 @@
         <v>125</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -10022,7 +9767,7 @@
         <v>125</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -10054,7 +9799,7 @@
         <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10086,7 +9831,7 @@
         <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10118,7 +9863,7 @@
         <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10150,7 +9895,7 @@
         <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10182,7 +9927,7 @@
         <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10214,7 +9959,7 @@
         <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10246,7 +9991,7 @@
         <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10278,7 +10023,7 @@
         <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10310,7 +10055,7 @@
         <v>128</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10342,7 +10087,7 @@
         <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10374,7 +10119,7 @@
         <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10406,7 +10151,7 @@
         <v>128</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10438,7 +10183,7 @@
         <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10470,7 +10215,7 @@
         <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10502,7 +10247,7 @@
         <v>128</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10534,7 +10279,7 @@
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10566,7 +10311,7 @@
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10598,7 +10343,7 @@
         <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10630,7 +10375,7 @@
         <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10662,7 +10407,7 @@
         <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10694,7 +10439,7 @@
         <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10726,7 +10471,7 @@
         <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10758,7 +10503,7 @@
         <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10790,7 +10535,7 @@
         <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10822,7 +10567,7 @@
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10854,7 +10599,7 @@
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10886,7 +10631,7 @@
         <v>128</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10918,7 +10663,7 @@
         <v>125</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10950,7 +10695,7 @@
         <v>125</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10982,7 +10727,7 @@
         <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -11014,7 +10759,7 @@
         <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -11046,7 +10791,7 @@
         <v>128</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11078,7 +10823,7 @@
         <v>128</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11110,7 +10855,7 @@
         <v>128</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11142,7 +10887,7 @@
         <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11174,7 +10919,7 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11206,7 +10951,7 @@
         <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11238,7 +10983,7 @@
         <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11270,7 +11015,7 @@
         <v>128</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11302,7 +11047,7 @@
         <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11334,7 +11079,7 @@
         <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11366,7 +11111,7 @@
         <v>140</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11398,7 +11143,7 @@
         <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11430,7 +11175,7 @@
         <v>128</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11462,7 +11207,7 @@
         <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11494,7 +11239,7 @@
         <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11526,7 +11271,7 @@
         <v>133</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11558,7 +11303,7 @@
         <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11590,7 +11335,7 @@
         <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11622,7 +11367,7 @@
         <v>128</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11654,7 +11399,7 @@
         <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11686,7 +11431,7 @@
         <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11718,7 +11463,7 @@
         <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11750,7 +11495,7 @@
         <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11782,7 +11527,7 @@
         <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11814,7 +11559,7 @@
         <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11846,7 +11591,7 @@
         <v>140</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11878,7 +11623,7 @@
         <v>128</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11910,7 +11655,7 @@
         <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11942,7 +11687,7 @@
         <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11974,7 +11719,7 @@
         <v>128</v>
       </c>
       <c r="I102" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -12006,7 +11751,7 @@
         <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -12038,7 +11783,7 @@
         <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12070,7 +11815,7 @@
         <v>140</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12102,7 +11847,7 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12134,7 +11879,7 @@
         <v>128</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12166,7 +11911,7 @@
         <v>125</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12198,7 +11943,7 @@
         <v>125</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12230,7 +11975,7 @@
         <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12262,7 +12007,7 @@
         <v>125</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12294,7 +12039,7 @@
         <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12326,7 +12071,7 @@
         <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12358,7 +12103,7 @@
         <v>128</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12390,7 +12135,7 @@
         <v>125</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12422,7 +12167,7 @@
         <v>125</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12454,7 +12199,7 @@
         <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12486,7 +12231,7 @@
         <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12518,7 +12263,7 @@
         <v>125</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12550,7 +12295,7 @@
         <v>125</v>
       </c>
       <c r="I120" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12582,7 +12327,7 @@
         <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12614,7 +12359,7 @@
         <v>133</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12646,7 +12391,7 @@
         <v>140</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12678,7 +12423,7 @@
         <v>140</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12710,7 +12455,7 @@
         <v>125</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12742,7 +12487,7 @@
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12774,7 +12519,7 @@
         <v>128</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12806,7 +12551,7 @@
         <v>125</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12838,7 +12583,7 @@
         <v>125</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12870,7 +12615,7 @@
         <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12902,7 +12647,7 @@
         <v>133</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12934,7 +12679,7 @@
         <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12966,7 +12711,7 @@
         <v>140</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12998,7 +12743,7 @@
         <v>128</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -13030,7 +12775,7 @@
         <v>133</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13062,7 +12807,7 @@
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13094,7 +12839,7 @@
         <v>128</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13126,7 +12871,7 @@
         <v>125</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13158,7 +12903,7 @@
         <v>125</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13190,7 +12935,7 @@
         <v>140</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13222,7 +12967,7 @@
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13254,7 +12999,7 @@
         <v>140</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13286,7 +13031,7 @@
         <v>140</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13318,7 +13063,7 @@
         <v>128</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13350,7 +13095,7 @@
         <v>125</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13382,7 +13127,7 @@
         <v>125</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13414,7 +13159,7 @@
         <v>133</v>
       </c>
       <c r="I147" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13446,7 +13191,7 @@
         <v>133</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13478,22 +13223,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13725,7 +13470,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13755,7 +13500,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -13783,27 +13528,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="23" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="26" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C3" s="27">
         <v>53896550.399999999</v>
@@ -13812,20 +13557,20 @@
         <v>2022</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F36" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>10781731.08</v>
+        <v>10802018.08</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G36" ca="1" si="1">C3-F3</f>
-        <v>43114819.32</v>
+        <v>43094532.32</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1">
       <c r="B4" s="26" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C4" s="27">
         <v>67366252.799999997</v>
@@ -13834,20 +13579,20 @@
         <v>2019</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13479815.560000001</v>
+        <v>13497450.560000001</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53886437.239999995</v>
+        <v>53868802.239999995</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="26" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="C5" s="27">
         <v>107760576</v>
@@ -13856,20 +13601,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21575482.200000003</v>
+        <v>21575558.200000003</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86185093.799999997</v>
+        <v>86185017.799999997</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="26" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C6" s="27">
         <v>121082438.40000001</v>
@@ -13878,20 +13623,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24236915.680000003</v>
+        <v>24226774.680000003</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96845522.719999999</v>
+        <v>96855663.719999999</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="26" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="C7" s="27">
         <v>16608345.6</v>
@@ -13900,20 +13645,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3344636.12</v>
+        <v>3334096.12</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13263709.48</v>
+        <v>13274249.48</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="C8" s="27">
         <v>33034848</v>
@@ -13922,20 +13667,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6623716.6000000006</v>
+        <v>6629972.6000000006</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26411131.399999999</v>
+        <v>26404875.399999999</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="26" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="C9" s="27">
         <v>49461350.399999999</v>
@@ -13944,20 +13689,20 @@
         <v>2020</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9897077.0800000001</v>
+        <v>9913832.0800000001</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39564273.32</v>
+        <v>39547518.32</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="26" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="C10" s="27">
         <v>65887852.799999997</v>
@@ -13966,20 +13711,20 @@
         <v>2020</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13201029.560000001</v>
+        <v>13181233.560000001</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52686823.239999995</v>
+        <v>52706619.239999995</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="26" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C11" s="27">
         <v>82314355.199999988</v>
@@ -13988,20 +13733,20 @@
         <v>2020</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16484743.039999999</v>
+        <v>16464507.039999999</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65829612.159999989</v>
+        <v>65849848.159999989</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="26" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="C12" s="27">
         <v>98740857.600000009</v>
@@ -14010,20 +13755,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19771015.520000003</v>
+        <v>19758914.520000003</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78969842.080000013</v>
+        <v>78981943.080000013</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30" customHeight="1">
       <c r="B13" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C13" s="27">
         <v>115152576</v>
@@ -14032,20 +13777,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23054692.200000003</v>
+        <v>23035951.200000003</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92097883.799999997</v>
+        <v>92116624.799999997</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="26" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C14" s="27">
         <v>131431238.40000001</v>
@@ -14054,20 +13799,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26294875.680000003</v>
+        <v>26290783.680000003</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105136362.72</v>
+        <v>105140454.72</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="26" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C15" s="27">
         <v>146379340.80000001</v>
@@ -14076,20 +13821,20 @@
         <v>2017</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29278421.160000004</v>
+        <v>29298028.160000004</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117100919.64000002</v>
+        <v>117081312.64000002</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="26" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="C16" s="27">
         <v>14965843.199999999</v>
@@ -14098,20 +13843,20 @@
         <v>2017</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3016374.64</v>
+        <v>3015233.64</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11949468.559999999</v>
+        <v>11950609.559999999</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="26" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C17" s="27">
         <v>31392345.600000001</v>
@@ -14120,20 +13865,20 @@
         <v>2017</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6280862.120000001</v>
+        <v>6285976.120000001</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25111483.48</v>
+        <v>25106369.48</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="26" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="C18" s="27">
         <v>47818848</v>
@@ -14142,20 +13887,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9576303.5999999996</v>
+        <v>9570102.5999999996</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38242544.399999999</v>
+        <v>38248745.399999999</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="26" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="C19" s="27">
         <v>64245350.399999999</v>
@@ -14164,20 +13909,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12872064.08</v>
+        <v>12867036.08</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51373286.32</v>
+        <v>51378314.32</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="26" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="C20" s="27">
         <v>80671852.799999997</v>
@@ -14186,20 +13931,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16156442.560000001</v>
+        <v>16148275.560000001</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64515410.239999995</v>
+        <v>64523577.239999995</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="26" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C21" s="27">
         <v>97098355.199999988</v>
@@ -14208,20 +13953,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19428329.039999999</v>
+        <v>19431376.039999999</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77670026.159999996</v>
+        <v>77666979.159999996</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="26" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="C22" s="27">
         <v>113524857.59999999</v>
@@ -14230,20 +13975,20 @@
         <v>2015</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22722901.52</v>
+        <v>22707870.52</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90801956.079999998</v>
+        <v>90816987.079999998</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="26" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="C23" s="27">
         <v>129936576</v>
@@ -14252,20 +13997,20 @@
         <v>2015</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26003802.200000003</v>
+        <v>26008118.200000003</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103932773.8</v>
+        <v>103928457.8</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="26" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C24" s="27">
         <v>146215238.40000001</v>
@@ -14274,20 +14019,20 @@
         <v>2015</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29251204.680000003</v>
+        <v>29264321.680000003</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116964033.72</v>
+        <v>116950916.72</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="26" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="C25" s="27">
         <v>28107340.800000001</v>
@@ -14296,20 +14041,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5627319.1600000001</v>
+        <v>5639643.1600000001</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22480021.640000001</v>
+        <v>22467697.640000001</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="26" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="C26" s="27">
         <v>44533843.200000003</v>
@@ -14318,20 +14063,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8921523.6400000006</v>
+        <v>8931128.6400000006</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35612319.560000002</v>
+        <v>35602714.560000002</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="26" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="C27" s="27">
         <v>60960345.599999987</v>
@@ -14340,20 +14085,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12205664.119999997</v>
+        <v>12198245.119999997</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48754681.479999989</v>
+        <v>48762100.479999989</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="26" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C28" s="27">
         <v>77386848</v>
@@ -14362,20 +14107,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15479990.600000001</v>
+        <v>15501714.600000001</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61906857.399999999</v>
+        <v>61885133.399999999</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="26" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C29" s="27">
         <v>93813350.399999991</v>
@@ -14384,20 +14129,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18776393.079999998</v>
+        <v>18782915.079999998</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75036957.319999993</v>
+        <v>75030435.319999993</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="26" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C30" s="27">
         <v>110239852.8</v>
@@ -14406,20 +14151,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22053303.560000002</v>
+        <v>22049960.560000002</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88186549.239999995</v>
+        <v>88189892.239999995</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="26" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C31" s="27">
         <v>126666355.2</v>
@@ -14428,20 +14173,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25333778.040000003</v>
+        <v>25335574.040000003</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101332577.16</v>
+        <v>101330781.16</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="26" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C32" s="27">
         <v>143092857.59999999</v>
@@ -14450,20 +14195,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28624026.52</v>
+        <v>28619511.52</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114468831.08</v>
+        <v>114473346.08</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="26" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="C33" s="27">
         <v>26448576</v>
@@ -14472,20 +14217,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5294084.2</v>
+        <v>5298645.2</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21154491.800000001</v>
+        <v>21149930.800000001</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="26" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="C34" s="27">
         <v>42727238.399999999</v>
@@ -14494,20 +14239,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8562852.6799999997</v>
+        <v>8558776.6799999997</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34164385.719999999</v>
+        <v>34168461.719999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="26" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="C35" s="27">
         <v>57675340.799999997</v>
@@ -14516,20 +14261,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11551564.16</v>
+        <v>11554153.16</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46123776.640000001</v>
+        <v>46121187.640000001</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="26" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="C36" s="27">
         <v>74101843.200000003</v>
@@ -14538,15 +14283,15 @@
         <v>2015</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14845315.640000001</v>
+        <v>14826951.640000001</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59256527.560000002</v>
+        <v>59274891.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14582,10 +14327,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14624,7 +14369,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="29" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="C39" s="29">
         <v>6</v>
@@ -14642,7 +14387,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="29" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="C40" s="29">
         <v>7</v>
@@ -14698,13 +14443,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14712,7 +14457,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14724,10 +14469,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14749,10 +14494,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14773,10 +14518,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14797,10 +14542,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14821,10 +14566,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14846,10 +14591,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14871,10 +14616,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14896,10 +14641,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14921,10 +14666,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14946,10 +14691,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14971,7 +14716,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14993,10 +14738,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -15018,7 +14763,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -15041,7 +14786,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -15063,7 +14808,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15085,10 +14830,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -15110,7 +14855,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15132,7 +14877,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15154,7 +14899,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15177,7 +14922,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15199,7 +14944,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15221,7 +14966,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15243,7 +14988,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15265,7 +15010,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15287,7 +15032,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15309,7 +15054,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15331,10 +15076,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15356,10 +15101,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15381,7 +15126,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15403,7 +15148,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15426,7 +15171,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15448,10 +15193,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15473,10 +15218,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15498,10 +15243,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15523,10 +15268,10 @@
         <v>15</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15548,7 +15293,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15570,7 +15315,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15592,7 +15337,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15614,10 +15359,10 @@
         <v>14</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15639,10 +15384,10 @@
         <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15664,7 +15409,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15686,7 +15431,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15708,7 +15453,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15730,7 +15475,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15752,7 +15497,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15774,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15796,7 +15541,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15818,7 +15563,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15840,7 +15585,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15862,7 +15607,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Bank_Data/DEC 2022.xlsx
+++ b/Sample_Bank_Data/DEC 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{B2F8C513-F285-4704-A829-C66F418150D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FAD9AD6-D8A6-4B2A-9241-01B5D48ED0AB}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{B2F8C513-F285-4704-A829-C66F418150D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6847673F-236E-4292-B884-F8D62E885352}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="301">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
   </si>
   <si>
     <t>Building4</t>
-  </si>
-  <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>75%</t>
@@ -1670,33 +1661,33 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="M1" t="s">
         <v>266</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1707,13 +1698,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1724,13 +1715,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -1741,13 +1732,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -1758,13 +1749,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -1775,13 +1766,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -1792,13 +1783,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" t="s">
-        <v>259</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -1809,13 +1800,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -1826,13 +1817,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -1843,13 +1834,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -1860,13 +1851,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1877,13 +1868,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1894,13 +1885,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -1911,13 +1902,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -1928,13 +1919,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1945,13 +1936,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -1962,13 +1953,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1979,13 +1970,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1996,13 +1987,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2013,13 +2004,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2030,7 +2021,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2041,13 +2032,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2055,10 +2046,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2066,7 +2057,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2089,21 +2080,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>268</v>
-      </c>
       <c r="C1" s="32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2117,7 +2108,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2131,7 +2122,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2145,7 +2136,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2159,7 +2150,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2173,7 +2164,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2187,7 +2178,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2201,7 +2192,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2215,7 +2206,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2229,7 +2220,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2243,7 +2234,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2257,7 +2248,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2271,7 +2262,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2285,7 +2276,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2299,7 +2290,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2313,7 +2304,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2327,7 +2318,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2341,7 +2332,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2355,7 +2346,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2369,7 +2360,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2383,7 +2374,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -8507,7 +8498,7 @@
         <v>6427101.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8516,10 +8507,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8539,7 +8530,7 @@
         <v>6427101.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8548,10 +8539,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8580,10 +8571,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8603,7 +8594,7 @@
         <v>12379191</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8612,10 +8603,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8635,7 +8626,7 @@
         <v>12379191</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8644,10 +8635,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8667,7 +8658,7 @@
         <v>49397150</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8676,10 +8667,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8699,7 +8690,7 @@
         <v>49397150</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8708,10 +8699,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8740,10 +8731,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8763,7 +8754,7 @@
         <v>49403164.5</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -8772,10 +8763,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8795,7 +8786,7 @@
         <v>49403164.5</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -8804,10 +8795,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -8827,7 +8818,7 @@
         <v>11671699</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -8836,10 +8827,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -8859,7 +8850,7 @@
         <v>11671699</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -8868,10 +8859,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -8891,7 +8882,7 @@
         <v>38303534</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -8900,10 +8891,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -8923,7 +8914,7 @@
         <v>38303534</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -8932,10 +8923,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -8964,10 +8955,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -8987,7 +8978,7 @@
         <v>28393523.5</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -8996,10 +8987,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9019,7 +9010,7 @@
         <v>28393523.5</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9028,10 +9019,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9051,7 +9042,7 @@
         <v>43881928</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9060,10 +9051,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9083,7 +9074,7 @@
         <v>43881928</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9092,10 +9083,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9115,7 +9106,7 @@
         <v>27242199.5</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9124,10 +9115,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9147,7 +9138,7 @@
         <v>27242199.5</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9156,10 +9147,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9179,7 +9170,7 @@
         <v>11768730.5</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9188,10 +9179,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9211,7 +9202,7 @@
         <v>11768730.5</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9220,10 +9211,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9243,7 +9234,7 @@
         <v>33905731.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9252,10 +9243,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9275,7 +9266,7 @@
         <v>33905731.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9284,10 +9275,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9307,7 +9298,7 @@
         <v>16019196</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9316,10 +9307,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9339,7 +9330,7 @@
         <v>16019196</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9348,10 +9339,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9371,7 +9362,7 @@
         <v>38333348.5</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9380,10 +9371,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9403,7 +9394,7 @@
         <v>38333348.5</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9412,10 +9403,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9444,10 +9435,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9467,7 +9458,7 @@
         <v>10523813</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9476,10 +9467,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9499,7 +9490,7 @@
         <v>10523813</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9508,10 +9499,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9531,7 +9522,7 @@
         <v>45130520.5</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9540,10 +9531,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9563,7 +9554,7 @@
         <v>45130520.5</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9572,10 +9563,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9604,10 +9595,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9627,7 +9618,7 @@
         <v>49389483</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9636,10 +9627,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9659,7 +9650,7 @@
         <v>49389483</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9668,10 +9659,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9700,10 +9691,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9723,7 +9714,7 @@
         <v>11720335.5</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9732,10 +9723,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9755,7 +9746,7 @@
         <v>11720335.5</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -9764,10 +9755,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9787,7 +9778,7 @@
         <v>32724276</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -9796,10 +9787,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9819,7 +9810,7 @@
         <v>32724276</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -9828,10 +9819,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9860,10 +9851,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9883,7 +9874,7 @@
         <v>39421749</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -9892,10 +9883,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9915,7 +9906,7 @@
         <v>39421749</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -9924,10 +9915,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -9956,10 +9947,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -9979,7 +9970,7 @@
         <v>22813999</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -9988,10 +9979,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10011,7 +10002,7 @@
         <v>22813999</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -10020,10 +10011,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10052,10 +10043,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10075,7 +10066,7 @@
         <v>6148936.5</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10084,10 +10075,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10107,7 +10098,7 @@
         <v>6148936.5</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10116,10 +10107,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10148,10 +10139,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10171,7 +10162,7 @@
         <v>6215262</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10180,10 +10171,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10203,7 +10194,7 @@
         <v>6215262</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10212,10 +10203,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10244,10 +10235,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10267,7 +10258,7 @@
         <v>17257987.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10276,10 +10267,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10299,7 +10290,7 @@
         <v>17257987.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10308,10 +10299,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10340,10 +10331,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10363,7 +10354,7 @@
         <v>38270735</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10372,10 +10363,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10395,7 +10386,7 @@
         <v>38270735</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10404,10 +10395,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10436,10 +10427,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10459,7 +10450,7 @@
         <v>6191810.5</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10468,10 +10459,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10491,7 +10482,7 @@
         <v>6191810.5</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10500,10 +10491,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10532,10 +10523,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10555,7 +10546,7 @@
         <v>32779793.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10564,10 +10555,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10587,7 +10578,7 @@
         <v>32779793.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10596,10 +10587,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10628,10 +10619,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10651,7 +10642,7 @@
         <v>28411352.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10660,10 +10651,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10683,7 +10674,7 @@
         <v>28411352.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10692,10 +10683,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10715,7 +10706,7 @@
         <v>39414212.5</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10724,10 +10715,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10747,7 +10738,7 @@
         <v>39414212.5</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -10756,10 +10747,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10788,10 +10779,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10820,10 +10811,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10852,10 +10843,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10875,7 +10866,7 @@
         <v>38309813.5</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -10884,10 +10875,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10907,7 +10898,7 @@
         <v>38309813.5</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -10916,10 +10907,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10939,7 +10930,7 @@
         <v>43822299</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -10948,10 +10939,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -10971,7 +10962,7 @@
         <v>43822299</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -10980,10 +10971,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11012,10 +11003,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11035,7 +11026,7 @@
         <v>22908763</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -11044,10 +11035,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11067,7 +11058,7 @@
         <v>22908763</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11076,10 +11067,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11099,7 +11090,7 @@
         <v>11696096</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11108,10 +11099,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11131,7 +11122,7 @@
         <v>11696096</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11140,10 +11131,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11172,10 +11163,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11204,10 +11195,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11227,7 +11218,7 @@
         <v>28358590.5</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11236,10 +11227,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11259,7 +11250,7 @@
         <v>28358590.5</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11268,10 +11259,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11291,7 +11282,7 @@
         <v>33979282.5</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11300,10 +11291,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11323,7 +11314,7 @@
         <v>33979282.5</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11332,10 +11323,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11364,10 +11355,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11387,7 +11378,7 @@
         <v>5545028</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11396,10 +11387,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11419,7 +11410,7 @@
         <v>5545028</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11428,10 +11419,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11451,7 +11442,7 @@
         <v>5518974</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11460,10 +11451,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11483,7 +11474,7 @@
         <v>5518974</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11492,10 +11483,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11524,10 +11515,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11547,7 +11538,7 @@
         <v>43858940</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11556,10 +11547,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11579,7 +11570,7 @@
         <v>43858940</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11588,10 +11579,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11620,10 +11611,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11643,7 +11634,7 @@
         <v>11766572.5</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11652,10 +11643,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11675,7 +11666,7 @@
         <v>11766572.5</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11684,10 +11675,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11716,10 +11707,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11739,7 +11730,7 @@
         <v>49416396</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -11748,10 +11739,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11771,7 +11762,7 @@
         <v>49416396</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -11780,10 +11771,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11803,7 +11794,7 @@
         <v>11819401</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -11812,10 +11803,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11835,7 +11826,7 @@
         <v>11819401</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -11844,10 +11835,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11876,10 +11867,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11899,7 +11890,7 @@
         <v>6258732</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -11908,10 +11899,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11931,7 +11922,7 @@
         <v>6258732</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -11940,10 +11931,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -11963,7 +11954,7 @@
         <v>17246641</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -11972,10 +11963,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -11995,7 +11986,7 @@
         <v>17246641</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -12004,10 +11995,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12027,7 +12018,7 @@
         <v>32673475.5</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -12036,10 +12027,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12059,7 +12050,7 @@
         <v>32673475.5</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12068,10 +12059,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12100,10 +12091,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12123,7 +12114,7 @@
         <v>38236086</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12132,10 +12123,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12155,7 +12146,7 @@
         <v>38236086</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12164,10 +12155,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12187,7 +12178,7 @@
         <v>49322245.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12196,10 +12187,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12219,7 +12210,7 @@
         <v>49322245.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12228,10 +12219,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12251,7 +12242,7 @@
         <v>22863328</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12260,10 +12251,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12283,7 +12274,7 @@
         <v>22863328</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12292,10 +12283,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12315,7 +12306,7 @@
         <v>22866730</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12324,10 +12315,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12347,7 +12338,7 @@
         <v>22866730</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12356,10 +12347,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12379,7 +12370,7 @@
         <v>11790763</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12388,10 +12379,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12411,7 +12402,7 @@
         <v>11790763</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12420,10 +12411,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12443,7 +12434,7 @@
         <v>32700024</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12452,10 +12443,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12475,7 +12466,7 @@
         <v>32700024</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12484,10 +12475,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12516,10 +12507,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12539,7 +12530,7 @@
         <v>28425024</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12548,10 +12539,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12571,7 +12562,7 @@
         <v>28425024</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12580,10 +12571,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12603,7 +12594,7 @@
         <v>17229401</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12612,10 +12603,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12635,7 +12626,7 @@
         <v>17229401</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12644,10 +12635,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12667,7 +12658,7 @@
         <v>27143448</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12676,10 +12667,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12699,7 +12690,7 @@
         <v>27143448</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12708,10 +12699,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12740,10 +12731,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12763,7 +12754,7 @@
         <v>33930830.5</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -12772,10 +12763,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12795,7 +12786,7 @@
         <v>33930830.5</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -12804,10 +12795,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12836,10 +12827,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12859,7 +12850,7 @@
         <v>21650309</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -12868,10 +12859,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12891,7 +12882,7 @@
         <v>21650309</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -12900,10 +12891,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12923,7 +12914,7 @@
         <v>32719032.5</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -12932,10 +12923,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -12955,7 +12946,7 @@
         <v>32719032.5</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -12964,10 +12955,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -12987,7 +12978,7 @@
         <v>39423626.5</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -12996,10 +12987,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13019,7 +13010,7 @@
         <v>39423626.5</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -13028,10 +13019,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13060,10 +13051,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13083,7 +13074,7 @@
         <v>16060863.5</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13092,10 +13083,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13115,7 +13106,7 @@
         <v>16060863.5</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13124,10 +13115,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13147,7 +13138,7 @@
         <v>27184149</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13156,10 +13147,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13179,7 +13170,7 @@
         <v>27184149</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13188,10 +13179,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13223,22 +13214,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13470,7 +13461,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13500,7 +13491,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -13528,27 +13519,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C3" s="27">
         <v>53896550.399999999</v>
@@ -13557,20 +13548,20 @@
         <v>2022</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F36" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>10802018.08</v>
+        <v>10801879.08</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G36" ca="1" si="1">C3-F3</f>
-        <v>43094532.32</v>
+        <v>43094671.32</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1">
       <c r="B4" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C4" s="27">
         <v>67366252.799999997</v>
@@ -13579,20 +13570,20 @@
         <v>2019</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13497450.560000001</v>
+        <v>13491390.560000001</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53868802.239999995</v>
+        <v>53874862.239999995</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C5" s="27">
         <v>107760576</v>
@@ -13601,20 +13592,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21575558.200000003</v>
+        <v>21555319.200000003</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86185017.799999997</v>
+        <v>86205256.799999997</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" s="27">
         <v>121082438.40000001</v>
@@ -13623,20 +13614,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24226774.680000003</v>
+        <v>24225587.680000003</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96855663.719999999</v>
+        <v>96856850.719999999</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C7" s="27">
         <v>16608345.6</v>
@@ -13645,20 +13636,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3334096.12</v>
+        <v>3343346.12</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13274249.48</v>
+        <v>13264999.48</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="27">
         <v>33034848</v>
@@ -13667,20 +13658,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6629972.6000000006</v>
+        <v>6617444.6000000006</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26404875.399999999</v>
+        <v>26417403.399999999</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C9" s="27">
         <v>49461350.399999999</v>
@@ -13689,20 +13680,20 @@
         <v>2020</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9913832.0800000001</v>
+        <v>9912608.0800000001</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39547518.32</v>
+        <v>39548742.32</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C10" s="27">
         <v>65887852.799999997</v>
@@ -13711,20 +13702,20 @@
         <v>2020</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13181233.560000001</v>
+        <v>13187659.560000001</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52706619.239999995</v>
+        <v>52700193.239999995</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C11" s="27">
         <v>82314355.199999988</v>
@@ -13733,20 +13724,20 @@
         <v>2020</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16464507.039999999</v>
+        <v>16463617.039999999</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65849848.159999989</v>
+        <v>65850738.159999989</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C12" s="27">
         <v>98740857.600000009</v>
@@ -13755,20 +13746,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19758914.520000003</v>
+        <v>19758898.520000003</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78981943.080000013</v>
+        <v>78981959.080000013</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="30" customHeight="1">
       <c r="B13" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C13" s="27">
         <v>115152576</v>
@@ -13777,20 +13768,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23035951.200000003</v>
+        <v>23041977.200000003</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92116624.799999997</v>
+        <v>92110598.799999997</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C14" s="27">
         <v>131431238.40000001</v>
@@ -13799,20 +13790,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26290783.680000003</v>
+        <v>26303319.680000003</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105140454.72</v>
+        <v>105127918.72</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C15" s="27">
         <v>146379340.80000001</v>
@@ -13821,20 +13812,20 @@
         <v>2017</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29298028.160000004</v>
+        <v>29290084.160000004</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117081312.64000002</v>
+        <v>117089256.64000002</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C16" s="27">
         <v>14965843.199999999</v>
@@ -13843,20 +13834,20 @@
         <v>2017</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3015233.64</v>
+        <v>3002967.64</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11950609.559999999</v>
+        <v>11962875.559999999</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C17" s="27">
         <v>31392345.600000001</v>
@@ -13865,20 +13856,20 @@
         <v>2017</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6285976.120000001</v>
+        <v>6288121.120000001</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25106369.48</v>
+        <v>25104224.48</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C18" s="27">
         <v>47818848</v>
@@ -13887,20 +13878,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9570102.5999999996</v>
+        <v>9581390.5999999996</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38248745.399999999</v>
+        <v>38237457.399999999</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C19" s="27">
         <v>64245350.399999999</v>
@@ -13909,20 +13900,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12867036.08</v>
+        <v>12863921.08</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51378314.32</v>
+        <v>51381429.32</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C20" s="27">
         <v>80671852.799999997</v>
@@ -13931,20 +13922,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16148275.560000001</v>
+        <v>16150489.560000001</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64523577.239999995</v>
+        <v>64521363.239999995</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21" s="27">
         <v>97098355.199999988</v>
@@ -13953,20 +13944,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19431376.039999999</v>
+        <v>19435163.039999999</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77666979.159999996</v>
+        <v>77663192.159999996</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22" s="27">
         <v>113524857.59999999</v>
@@ -13975,20 +13966,20 @@
         <v>2015</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22707870.52</v>
+        <v>22715182.52</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90816987.079999998</v>
+        <v>90809675.079999998</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C23" s="27">
         <v>129936576</v>
@@ -13997,20 +13988,20 @@
         <v>2015</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26008118.200000003</v>
+        <v>25988933.200000003</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103928457.8</v>
+        <v>103947642.8</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C24" s="27">
         <v>146215238.40000001</v>
@@ -14019,20 +14010,20 @@
         <v>2015</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29264321.680000003</v>
+        <v>29264614.680000003</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116950916.72</v>
+        <v>116950623.72</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C25" s="27">
         <v>28107340.800000001</v>
@@ -14041,20 +14032,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5639643.1600000001</v>
+        <v>5638641.1600000001</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22467697.640000001</v>
+        <v>22468699.640000001</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C26" s="27">
         <v>44533843.200000003</v>
@@ -14063,20 +14054,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8931128.6400000006</v>
+        <v>8907156.6400000006</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35602714.560000002</v>
+        <v>35626686.560000002</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C27" s="27">
         <v>60960345.599999987</v>
@@ -14085,20 +14076,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12198245.119999997</v>
+        <v>12208566.119999997</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48762100.479999989</v>
+        <v>48751779.479999989</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C28" s="27">
         <v>77386848</v>
@@ -14107,20 +14098,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15501714.600000001</v>
+        <v>15495133.600000001</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61885133.399999999</v>
+        <v>61891714.399999999</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C29" s="27">
         <v>93813350.399999991</v>
@@ -14129,20 +14120,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18782915.079999998</v>
+        <v>18774281.079999998</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75030435.319999993</v>
+        <v>75039069.319999993</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C30" s="27">
         <v>110239852.8</v>
@@ -14151,20 +14142,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22049960.560000002</v>
+        <v>22053901.560000002</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88189892.239999995</v>
+        <v>88185951.239999995</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C31" s="27">
         <v>126666355.2</v>
@@ -14173,20 +14164,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25335574.040000003</v>
+        <v>25357280.040000003</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101330781.16</v>
+        <v>101309075.16</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="26" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="27">
         <v>143092857.59999999</v>
@@ -14195,20 +14186,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28619511.52</v>
+        <v>28636673.52</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114473346.08</v>
+        <v>114456184.08</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C33" s="27">
         <v>26448576</v>
@@ -14217,20 +14208,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5298645.2</v>
+        <v>5305112.2</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21149930.800000001</v>
+        <v>21143463.800000001</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C34" s="27">
         <v>42727238.399999999</v>
@@ -14239,20 +14230,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8558776.6799999997</v>
+        <v>8557124.6799999997</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34168461.719999999</v>
+        <v>34170113.719999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C35" s="27">
         <v>57675340.799999997</v>
@@ -14261,20 +14252,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11554153.16</v>
+        <v>11553701.16</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46121187.640000001</v>
+        <v>46121639.640000001</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C36" s="27">
         <v>74101843.200000003</v>
@@ -14283,15 +14274,15 @@
         <v>2015</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14826951.640000001</v>
+        <v>14832029.640000001</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59274891.560000002</v>
+        <v>59269813.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14327,10 +14318,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14369,7 +14360,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C39" s="29">
         <v>6</v>
@@ -14387,7 +14378,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C40" s="29">
         <v>7</v>
@@ -14443,13 +14434,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14457,7 +14448,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14469,10 +14460,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14494,10 +14485,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14518,10 +14509,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14542,10 +14533,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14566,10 +14557,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14591,10 +14582,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14616,10 +14607,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14641,10 +14632,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14666,10 +14657,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14691,10 +14682,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14716,7 +14707,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14738,10 +14729,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14763,7 +14754,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14786,7 +14777,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14808,7 +14799,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14830,10 +14821,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14855,7 +14846,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14877,7 +14868,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14899,7 +14890,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14922,7 +14913,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14944,7 +14935,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14966,7 +14957,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14988,7 +14979,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15010,7 +15001,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15032,7 +15023,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15054,7 +15045,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15076,10 +15067,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15101,10 +15092,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15126,7 +15117,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15148,7 +15139,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15171,7 +15162,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15193,10 +15184,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15218,10 +15209,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15243,10 +15234,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15268,10 +15259,10 @@
         <v>15</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15293,7 +15284,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15315,7 +15306,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15337,7 +15328,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15359,10 +15350,10 @@
         <v>14</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H40" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15384,10 +15375,10 @@
         <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15409,7 +15400,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15431,7 +15422,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15453,7 +15444,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15475,7 +15466,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15497,7 +15488,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15519,7 +15510,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15541,7 +15532,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15563,7 +15554,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15585,7 +15576,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15607,7 +15598,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Bank_Data/DEC 2022.xlsx
+++ b/Sample_Bank_Data/DEC 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{B2F8C513-F285-4704-A829-C66F418150D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6847673F-236E-4292-B884-F8D62E885352}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{B2F8C513-F285-4704-A829-C66F418150D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E68A731-0EC5-4FF8-949F-80B081CD2AC3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="301">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -3299,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8446,7 +8446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -13501,14 +13501,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:G36"/>
+  <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
@@ -13517,7 +13518,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="23" t="s">
         <v>197</v>
       </c>
@@ -13537,7 +13541,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:7">
+      <c r="A3" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="26" t="s">
         <v>203</v>
       </c>
@@ -13552,14 +13559,17 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F36" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>10801879.08</v>
+        <v>10785619.08</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G36" ca="1" si="1">C3-F3</f>
-        <v>43094671.32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1">
+        <v>43110931.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="26" t="s">
         <v>205</v>
       </c>
@@ -13574,14 +13584,17 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13491390.560000001</v>
+        <v>13488605.560000001</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53874862.239999995</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>53877647.239999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="26" t="s">
         <v>206</v>
       </c>
@@ -13596,14 +13609,17 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21555319.200000003</v>
+        <v>21560106.200000003</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86205256.799999997</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>86200469.799999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="26" t="s">
         <v>207</v>
       </c>
@@ -13618,14 +13634,17 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24225587.680000003</v>
+        <v>24217250.680000003</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96856850.719999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>96865187.719999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="26" t="s">
         <v>208</v>
       </c>
@@ -13640,14 +13659,17 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3343346.12</v>
+        <v>3330791.12</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13264999.48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>13277554.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="26" t="s">
         <v>209</v>
       </c>
@@ -13662,14 +13684,17 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6617444.6000000006</v>
+        <v>6607547.6000000006</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26417403.399999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>26427300.399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="26" t="s">
         <v>210</v>
       </c>
@@ -13684,14 +13709,17 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9912608.0800000001</v>
+        <v>9895087.0800000001</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39548742.32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>39566263.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="26" t="s">
         <v>211</v>
       </c>
@@ -13706,14 +13734,17 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13187659.560000001</v>
+        <v>13199800.560000001</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52700193.239999995</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>52688052.239999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="26" t="s">
         <v>212</v>
       </c>
@@ -13728,14 +13759,17 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16463617.039999999</v>
+        <v>16469142.039999999</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65850738.159999989</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>65845213.159999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="26" t="s">
         <v>213</v>
       </c>
@@ -13750,14 +13784,17 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19758898.520000003</v>
+        <v>19760779.520000003</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78981959.080000013</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1">
+        <v>78980078.080000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="26" t="s">
         <v>215</v>
       </c>
@@ -13772,14 +13809,17 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23041977.200000003</v>
+        <v>23037088.200000003</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92110598.799999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>92115487.799999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="26" t="s">
         <v>216</v>
       </c>
@@ -13794,14 +13834,17 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26303319.680000003</v>
+        <v>26295146.680000003</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105127918.72</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>105136091.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="26" t="s">
         <v>217</v>
       </c>
@@ -13816,14 +13859,17 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29290084.160000004</v>
+        <v>29300027.160000004</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117089256.64000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>117079313.64000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="26" t="s">
         <v>218</v>
       </c>
@@ -13838,14 +13884,17 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3002967.64</v>
+        <v>3017787.64</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11962875.559999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>11948055.559999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="26" t="s">
         <v>219</v>
       </c>
@@ -13860,14 +13909,17 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6288121.120000001</v>
+        <v>6294428.120000001</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25104224.48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>25097917.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="26" t="s">
         <v>220</v>
       </c>
@@ -13882,14 +13934,17 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9581390.5999999996</v>
+        <v>9586039.5999999996</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38237457.399999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>38232808.399999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="26" t="s">
         <v>221</v>
       </c>
@@ -13904,14 +13959,17 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12863921.08</v>
+        <v>12867936.08</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51381429.32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>51377414.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="26" t="s">
         <v>222</v>
       </c>
@@ -13926,14 +13984,17 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16150489.560000001</v>
+        <v>16155881.560000001</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64521363.239999995</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>64515971.239999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="26" t="s">
         <v>223</v>
       </c>
@@ -13948,14 +14009,17 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19435163.039999999</v>
+        <v>19419928.039999999</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77663192.159999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>77678427.159999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="26" t="s">
         <v>224</v>
       </c>
@@ -13970,14 +14034,17 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22715182.52</v>
+        <v>22716870.52</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90809675.079999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>90807987.079999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="26" t="s">
         <v>225</v>
       </c>
@@ -13992,14 +14059,17 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25988933.200000003</v>
+        <v>26011654.200000003</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103947642.8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>103924921.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="26" t="s">
         <v>226</v>
       </c>
@@ -14014,14 +14084,17 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29264614.680000003</v>
+        <v>29250348.680000003</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116950623.72</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>116964889.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="26" t="s">
         <v>227</v>
       </c>
@@ -14036,14 +14109,17 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5638641.1600000001</v>
+        <v>5624077.1600000001</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22468699.640000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>22483263.640000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="26" t="s">
         <v>228</v>
       </c>
@@ -14058,14 +14134,17 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8907156.6400000006</v>
+        <v>8920021.6400000006</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35626686.560000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>35613821.560000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="26" t="s">
         <v>229</v>
       </c>
@@ -14080,14 +14159,17 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12208566.119999997</v>
+        <v>12210965.119999997</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48751779.479999989</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>48749380.479999989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="26" t="s">
         <v>230</v>
       </c>
@@ -14102,14 +14184,17 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15495133.600000001</v>
+        <v>15481239.600000001</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61891714.399999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>61905608.399999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="26" t="s">
         <v>231</v>
       </c>
@@ -14124,14 +14209,17 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18774281.079999998</v>
+        <v>18770192.079999998</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75039069.319999993</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>75043158.319999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="26" t="s">
         <v>232</v>
       </c>
@@ -14146,14 +14234,17 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22053901.560000002</v>
+        <v>22056526.560000002</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88185951.239999995</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>88183326.239999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="26" t="s">
         <v>233</v>
       </c>
@@ -14168,14 +14259,17 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25357280.040000003</v>
+        <v>25357142.040000003</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101309075.16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>101309213.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="26" t="s">
         <v>234</v>
       </c>
@@ -14190,14 +14284,17 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28636673.52</v>
+        <v>28620608.52</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114456184.08</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>114472249.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="26" t="s">
         <v>235</v>
       </c>
@@ -14212,14 +14309,17 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5305112.2</v>
+        <v>5305837.2</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21143463.800000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>21142738.800000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="26" t="s">
         <v>236</v>
       </c>
@@ -14234,14 +14334,17 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8557124.6799999997</v>
+        <v>8559152.6799999997</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34170113.719999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>34168085.719999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="26" t="s">
         <v>237</v>
       </c>
@@ -14256,14 +14359,17 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11553701.16</v>
+        <v>11540879.16</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46121639.640000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+        <v>46134461.640000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="26" t="s">
         <v>238</v>
       </c>
@@ -14278,12 +14384,36 @@
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14832029.640000001</v>
+        <v>14834402.640000001</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59269813.560000002</v>
-      </c>
+        <v>59267440.560000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="20"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="20"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="20"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="20"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="20"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="20"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14292,14 +14422,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:F40"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
@@ -14307,7 +14438,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="29" t="s">
         <v>25</v>
       </c>
@@ -14324,7 +14458,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="29" t="s">
         <v>51</v>
       </c>
@@ -14342,7 +14479,10 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="29" t="s">
         <v>52</v>
       </c>

--- a/Sample_Bank_Data/DEC 2022.xlsx
+++ b/Sample_Bank_Data/DEC 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{B2F8C513-F285-4704-A829-C66F418150D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E68A731-0EC5-4FF8-949F-80B081CD2AC3}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{B2F8C513-F285-4704-A829-C66F418150D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1033AEAF-B2F6-40CD-B6ED-B52B571DB401}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J22"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3299,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8446,8 +8446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13503,7 +13503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37:A44"/>
     </sheetView>
   </sheetViews>
@@ -13559,11 +13559,11 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F36" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>10785619.08</v>
+        <v>10797914.08</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G36" ca="1" si="1">C3-F3</f>
-        <v>43110931.32</v>
+        <v>43098636.32</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
@@ -13584,11 +13584,11 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13488605.560000001</v>
+        <v>13492006.560000001</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53877647.239999995</v>
+        <v>53874246.239999995</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
@@ -13609,11 +13609,11 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21560106.200000003</v>
+        <v>21570574.200000003</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86200469.799999997</v>
+        <v>86190001.799999997</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -13634,11 +13634,11 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24217250.680000003</v>
+        <v>24230450.680000003</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96865187.719999999</v>
+        <v>96851987.719999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -13659,11 +13659,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3330791.12</v>
+        <v>3340411.12</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13277554.48</v>
+        <v>13267934.48</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13684,11 +13684,11 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6607547.6000000006</v>
+        <v>6608223.6000000006</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26427300.399999999</v>
+        <v>26426624.399999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
@@ -13709,11 +13709,11 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9895087.0800000001</v>
+        <v>9896147.0800000001</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39566263.32</v>
+        <v>39565203.32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13734,11 +13734,11 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13199800.560000001</v>
+        <v>13192442.560000001</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52688052.239999995</v>
+        <v>52695410.239999995</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -13759,11 +13759,11 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16469142.039999999</v>
+        <v>16468834.039999999</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65845213.159999989</v>
+        <v>65845521.159999989</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13784,11 +13784,11 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19760779.520000003</v>
+        <v>19766972.520000003</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78980078.080000013</v>
+        <v>78973885.080000013</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
@@ -13809,11 +13809,11 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23037088.200000003</v>
+        <v>23051927.200000003</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92115487.799999997</v>
+        <v>92100648.799999997</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13834,11 +13834,11 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26295146.680000003</v>
+        <v>26291863.680000003</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105136091.72</v>
+        <v>105139374.72</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
@@ -13859,11 +13859,11 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29300027.160000004</v>
+        <v>29280917.160000004</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117079313.64000002</v>
+        <v>117098423.64000002</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13884,11 +13884,11 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3017787.64</v>
+        <v>2994569.64</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11948055.559999999</v>
+        <v>11971273.559999999</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13909,11 +13909,11 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6294428.120000001</v>
+        <v>6303401.120000001</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25097917.48</v>
+        <v>25088944.48</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13934,11 +13934,11 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9586039.5999999996</v>
+        <v>9578370.5999999996</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38232808.399999999</v>
+        <v>38240477.399999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
@@ -13959,11 +13959,11 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12867936.08</v>
+        <v>12861084.08</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51377414.32</v>
+        <v>51384266.32</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13984,11 +13984,11 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16155881.560000001</v>
+        <v>16142726.560000001</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64515971.239999995</v>
+        <v>64529126.239999995</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
@@ -14009,11 +14009,11 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19419928.039999999</v>
+        <v>19424316.039999999</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77678427.159999996</v>
+        <v>77674039.159999996</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -14034,11 +14034,11 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22716870.52</v>
+        <v>22715629.52</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90807987.079999998</v>
+        <v>90809228.079999998</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -14059,11 +14059,11 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26011654.200000003</v>
+        <v>26010149.200000003</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103924921.8</v>
+        <v>103926426.8</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
@@ -14084,11 +14084,11 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29250348.680000003</v>
+        <v>29254181.680000003</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116964889.72</v>
+        <v>116961056.72</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -14109,11 +14109,11 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5624077.1600000001</v>
+        <v>5639456.1600000001</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22483263.640000001</v>
+        <v>22467884.640000001</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -14134,11 +14134,11 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8920021.6400000006</v>
+        <v>8907903.6400000006</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35613821.560000002</v>
+        <v>35625939.560000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
@@ -14159,11 +14159,11 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12210965.119999997</v>
+        <v>12198630.119999997</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48749380.479999989</v>
+        <v>48761715.479999989</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -14184,11 +14184,11 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15481239.600000001</v>
+        <v>15501753.600000001</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61905608.399999999</v>
+        <v>61885094.399999999</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -14209,11 +14209,11 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18770192.079999998</v>
+        <v>18783971.079999998</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75043158.319999993</v>
+        <v>75029379.319999993</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -14234,11 +14234,11 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22056526.560000002</v>
+        <v>22066874.560000002</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88183326.239999995</v>
+        <v>88172978.239999995</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -14259,11 +14259,11 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25357142.040000003</v>
+        <v>25352835.040000003</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101309213.16</v>
+        <v>101313520.16</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -14284,11 +14284,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28620608.52</v>
+        <v>28622478.52</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114472249.08</v>
+        <v>114470379.08</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -14309,11 +14309,11 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5305837.2</v>
+        <v>5298176.2</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21142738.800000001</v>
+        <v>21150399.800000001</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -14334,11 +14334,11 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8559152.6799999997</v>
+        <v>8548715.6799999997</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34168085.719999999</v>
+        <v>34178522.719999999</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11540879.16</v>
+        <v>11556481.16</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46134461.640000001</v>
+        <v>46118859.640000001</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -14384,11 +14384,11 @@
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14834402.640000001</v>
+        <v>14831041.640000001</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59267440.560000002</v>
+        <v>59270801.560000002</v>
       </c>
     </row>
     <row r="37" spans="1:7">

--- a/Sample_Bank_Data/DEC 2022.xlsx
+++ b/Sample_Bank_Data/DEC 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F8C513-F285-4704-A829-C66F418150D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{B2F8C513-F285-4704-A829-C66F418150D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1033AEAF-B2F6-40CD-B6ED-B52B571DB401}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="301">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>Building4</t>
   </si>
   <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
-  </si>
-  <si>
     <t>75%</t>
   </si>
   <si>
@@ -520,370 +511,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1701,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E16"/>
     </sheetView>
   </sheetViews>
@@ -1917,41 +1653,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J22"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="M1" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1962,13 +1698,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1979,13 +1715,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -1996,13 +1732,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -2013,13 +1749,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -2030,13 +1766,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2047,13 +1783,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -2064,13 +1800,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -2081,13 +1817,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -2098,13 +1834,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2115,13 +1851,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -2132,13 +1868,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2149,13 +1885,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -2166,13 +1902,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -2183,13 +1919,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -2200,13 +1936,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -2217,13 +1953,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2234,13 +1970,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2251,13 +1987,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2268,13 +2004,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2285,7 +2021,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2296,13 +2032,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2310,10 +2046,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2321,7 +2057,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2344,21 +2080,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2372,7 +2108,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2386,7 +2122,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2400,7 +2136,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2414,7 +2150,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2428,7 +2164,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2442,7 +2178,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2456,7 +2192,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2470,7 +2206,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2484,7 +2220,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2498,7 +2234,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2512,7 +2248,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2526,7 +2262,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2540,7 +2276,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2554,7 +2290,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2568,7 +2304,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2582,7 +2318,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2596,7 +2332,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2610,7 +2346,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2624,7 +2360,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2638,7 +2374,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -3563,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8710,8 +8446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8762,7 +8498,7 @@
         <v>6427101.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8771,10 +8507,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8794,7 +8530,7 @@
         <v>6427101.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8803,10 +8539,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8835,10 +8571,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8858,7 +8594,7 @@
         <v>12379191</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8867,10 +8603,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8890,7 +8626,7 @@
         <v>12379191</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8899,10 +8635,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8922,7 +8658,7 @@
         <v>49397150</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8931,10 +8667,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8954,7 +8690,7 @@
         <v>49397150</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8963,10 +8699,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8995,10 +8731,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -9018,7 +8754,7 @@
         <v>49403164.5</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -9027,10 +8763,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -9050,7 +8786,7 @@
         <v>49403164.5</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -9059,10 +8795,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -9082,7 +8818,7 @@
         <v>11671699</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -9091,10 +8827,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -9114,7 +8850,7 @@
         <v>11671699</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -9123,10 +8859,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -9146,7 +8882,7 @@
         <v>38303534</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -9155,10 +8891,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -9178,7 +8914,7 @@
         <v>38303534</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -9187,10 +8923,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -9219,10 +8955,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -9242,7 +8978,7 @@
         <v>28393523.5</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -9251,10 +8987,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9274,7 +9010,7 @@
         <v>28393523.5</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9283,10 +9019,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9306,7 +9042,7 @@
         <v>43881928</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9315,10 +9051,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9338,7 +9074,7 @@
         <v>43881928</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9347,10 +9083,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9370,7 +9106,7 @@
         <v>27242199.5</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9379,10 +9115,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9402,7 +9138,7 @@
         <v>27242199.5</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9411,10 +9147,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9434,7 +9170,7 @@
         <v>11768730.5</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9443,10 +9179,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9466,7 +9202,7 @@
         <v>11768730.5</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9475,10 +9211,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9498,7 +9234,7 @@
         <v>33905731.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9507,10 +9243,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9530,7 +9266,7 @@
         <v>33905731.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9539,10 +9275,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9562,7 +9298,7 @@
         <v>16019196</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9571,10 +9307,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>156</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9594,7 +9330,7 @@
         <v>16019196</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9603,10 +9339,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9626,7 +9362,7 @@
         <v>38333348.5</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9635,10 +9371,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9658,7 +9394,7 @@
         <v>38333348.5</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9667,10 +9403,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9699,10 +9435,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9722,7 +9458,7 @@
         <v>10523813</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9731,10 +9467,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9754,7 +9490,7 @@
         <v>10523813</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9763,10 +9499,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9786,7 +9522,7 @@
         <v>45130520.5</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9795,10 +9531,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9818,7 +9554,7 @@
         <v>45130520.5</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9827,10 +9563,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9859,10 +9595,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9882,7 +9618,7 @@
         <v>49389483</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9891,10 +9627,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9914,7 +9650,7 @@
         <v>49389483</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9923,10 +9659,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9955,10 +9691,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9978,7 +9714,7 @@
         <v>11720335.5</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9987,10 +9723,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -10010,7 +9746,7 @@
         <v>11720335.5</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -10019,10 +9755,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -10042,7 +9778,7 @@
         <v>32724276</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -10051,10 +9787,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10074,7 +9810,7 @@
         <v>32724276</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -10083,10 +9819,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10115,10 +9851,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10138,7 +9874,7 @@
         <v>39421749</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -10147,10 +9883,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10170,7 +9906,7 @@
         <v>39421749</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -10179,10 +9915,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10211,10 +9947,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10234,7 +9970,7 @@
         <v>22813999</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -10243,10 +9979,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10266,7 +10002,7 @@
         <v>22813999</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -10275,10 +10011,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10307,10 +10043,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10330,7 +10066,7 @@
         <v>6148936.5</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10339,10 +10075,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10362,7 +10098,7 @@
         <v>6148936.5</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10371,10 +10107,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>181</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10403,10 +10139,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>182</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10426,7 +10162,7 @@
         <v>6215262</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10435,10 +10171,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10458,7 +10194,7 @@
         <v>6215262</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10467,10 +10203,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10499,10 +10235,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10522,7 +10258,7 @@
         <v>17257987.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10531,10 +10267,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10554,7 +10290,7 @@
         <v>17257987.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10563,10 +10299,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>187</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10595,10 +10331,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10618,7 +10354,7 @@
         <v>38270735</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10627,10 +10363,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10650,7 +10386,7 @@
         <v>38270735</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10659,10 +10395,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>190</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10691,10 +10427,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10714,7 +10450,7 @@
         <v>6191810.5</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10723,10 +10459,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10746,7 +10482,7 @@
         <v>6191810.5</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10755,10 +10491,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10787,10 +10523,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10810,7 +10546,7 @@
         <v>32779793.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10819,10 +10555,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10842,7 +10578,7 @@
         <v>32779793.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10851,10 +10587,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10883,10 +10619,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10906,7 +10642,7 @@
         <v>28411352.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10915,10 +10651,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10938,7 +10674,7 @@
         <v>28411352.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10947,10 +10683,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10970,7 +10706,7 @@
         <v>39414212.5</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10979,10 +10715,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -11002,7 +10738,7 @@
         <v>39414212.5</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -11011,10 +10747,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -11043,10 +10779,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11075,10 +10811,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11107,10 +10843,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11130,7 +10866,7 @@
         <v>38309813.5</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -11139,10 +10875,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11162,7 +10898,7 @@
         <v>38309813.5</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -11171,10 +10907,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11194,7 +10930,7 @@
         <v>43822299</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -11203,10 +10939,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11226,7 +10962,7 @@
         <v>43822299</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -11235,10 +10971,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11267,10 +11003,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11290,7 +11026,7 @@
         <v>22908763</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -11299,10 +11035,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11322,7 +11058,7 @@
         <v>22908763</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11331,10 +11067,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11354,7 +11090,7 @@
         <v>11696096</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11363,10 +11099,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11386,7 +11122,7 @@
         <v>11696096</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11395,10 +11131,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11427,10 +11163,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11459,10 +11195,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11482,7 +11218,7 @@
         <v>28358590.5</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11491,10 +11227,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11514,7 +11250,7 @@
         <v>28358590.5</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11523,10 +11259,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11546,7 +11282,7 @@
         <v>33979282.5</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11555,10 +11291,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>218</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11578,7 +11314,7 @@
         <v>33979282.5</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11587,10 +11323,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11619,10 +11355,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11642,7 +11378,7 @@
         <v>5545028</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11651,10 +11387,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11674,7 +11410,7 @@
         <v>5545028</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11683,10 +11419,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11706,7 +11442,7 @@
         <v>5518974</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11715,10 +11451,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11738,7 +11474,7 @@
         <v>5518974</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11747,10 +11483,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11779,10 +11515,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11802,7 +11538,7 @@
         <v>43858940</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11811,10 +11547,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11834,7 +11570,7 @@
         <v>43858940</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11843,10 +11579,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11875,10 +11611,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11898,7 +11634,7 @@
         <v>11766572.5</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11907,10 +11643,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11930,7 +11666,7 @@
         <v>11766572.5</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11939,10 +11675,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11971,10 +11707,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>231</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11994,7 +11730,7 @@
         <v>49416396</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -12003,10 +11739,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -12026,7 +11762,7 @@
         <v>49416396</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -12035,10 +11771,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12058,7 +11794,7 @@
         <v>11819401</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -12067,10 +11803,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12090,7 +11826,7 @@
         <v>11819401</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -12099,10 +11835,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12131,10 +11867,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12154,7 +11890,7 @@
         <v>6258732</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -12163,10 +11899,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12186,7 +11922,7 @@
         <v>6258732</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -12195,10 +11931,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12218,7 +11954,7 @@
         <v>17246641</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -12227,10 +11963,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12250,7 +11986,7 @@
         <v>17246641</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -12259,10 +11995,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12282,7 +12018,7 @@
         <v>32673475.5</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -12291,10 +12027,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12314,7 +12050,7 @@
         <v>32673475.5</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12323,10 +12059,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>242</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12355,10 +12091,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12378,7 +12114,7 @@
         <v>38236086</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12387,10 +12123,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12410,7 +12146,7 @@
         <v>38236086</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12419,10 +12155,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12442,7 +12178,7 @@
         <v>49322245.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12451,10 +12187,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12474,7 +12210,7 @@
         <v>49322245.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12483,10 +12219,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12506,7 +12242,7 @@
         <v>22863328</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12515,10 +12251,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12538,7 +12274,7 @@
         <v>22863328</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12547,10 +12283,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>249</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12570,7 +12306,7 @@
         <v>22866730</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12579,10 +12315,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12602,7 +12338,7 @@
         <v>22866730</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12611,10 +12347,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12634,7 +12370,7 @@
         <v>11790763</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12643,10 +12379,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12666,7 +12402,7 @@
         <v>11790763</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12675,10 +12411,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12698,7 +12434,7 @@
         <v>32700024</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12707,10 +12443,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12730,7 +12466,7 @@
         <v>32700024</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12739,10 +12475,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12771,10 +12507,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12794,7 +12530,7 @@
         <v>28425024</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12803,10 +12539,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12826,7 +12562,7 @@
         <v>28425024</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12835,10 +12571,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12858,7 +12594,7 @@
         <v>17229401</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12867,10 +12603,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12890,7 +12626,7 @@
         <v>17229401</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12899,10 +12635,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12922,7 +12658,7 @@
         <v>27143448</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12931,10 +12667,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12954,7 +12690,7 @@
         <v>27143448</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12963,10 +12699,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12995,10 +12731,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -13018,7 +12754,7 @@
         <v>33930830.5</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -13027,10 +12763,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13050,7 +12786,7 @@
         <v>33930830.5</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -13059,10 +12795,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13091,10 +12827,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13114,7 +12850,7 @@
         <v>21650309</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -13123,10 +12859,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13146,7 +12882,7 @@
         <v>21650309</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -13155,10 +12891,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13178,7 +12914,7 @@
         <v>32719032.5</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -13187,10 +12923,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13210,7 +12946,7 @@
         <v>32719032.5</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -13219,10 +12955,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13242,7 +12978,7 @@
         <v>39423626.5</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -13251,10 +12987,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13274,7 +13010,7 @@
         <v>39423626.5</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -13283,10 +13019,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13315,10 +13051,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13338,7 +13074,7 @@
         <v>16060863.5</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13347,10 +13083,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13370,7 +13106,7 @@
         <v>16060863.5</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13379,10 +13115,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13402,7 +13138,7 @@
         <v>27184149</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13411,10 +13147,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>276</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13434,7 +13170,7 @@
         <v>27184149</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13443,10 +13179,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13478,22 +13214,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13725,7 +13461,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13755,7 +13491,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -13765,14 +13501,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:G36"/>
+  <dimension ref="A2:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
@@ -13781,29 +13518,35 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="23" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="26" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C3" s="27">
         <v>53896550.399999999</v>
@@ -13812,20 +13555,23 @@
         <v>2022</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F36" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>10781731.08</v>
+        <v>10797914.08</v>
       </c>
       <c r="G3" s="27">
         <f t="shared" ref="G3:G36" ca="1" si="1">C3-F3</f>
-        <v>43114819.32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1">
+        <v>43098636.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="26" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C4" s="27">
         <v>67366252.799999997</v>
@@ -13834,20 +13580,23 @@
         <v>2019</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F4" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13479815.560000001</v>
+        <v>13492006.560000001</v>
       </c>
       <c r="G4" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>53886437.239999995</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>53874246.239999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="26" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="C5" s="27">
         <v>107760576</v>
@@ -13856,20 +13605,23 @@
         <v>2022</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F5" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>21575482.200000003</v>
+        <v>21570574.200000003</v>
       </c>
       <c r="G5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>86185093.799999997</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>86190001.799999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="26" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="C6" s="27">
         <v>121082438.40000001</v>
@@ -13878,20 +13630,23 @@
         <v>2019</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>24236915.680000003</v>
+        <v>24230450.680000003</v>
       </c>
       <c r="G6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>96845522.719999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>96851987.719999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="26" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C7" s="27">
         <v>16608345.6</v>
@@ -13900,20 +13655,23 @@
         <v>2022</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3344636.12</v>
+        <v>3340411.12</v>
       </c>
       <c r="G7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>13263709.48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>13267934.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="26" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="C8" s="27">
         <v>33034848</v>
@@ -13922,20 +13680,23 @@
         <v>2019</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F8" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6623716.6000000006</v>
+        <v>6608223.6000000006</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>26411131.399999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>26426624.399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="26" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="C9" s="27">
         <v>49461350.399999999</v>
@@ -13944,20 +13705,23 @@
         <v>2020</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9897077.0800000001</v>
+        <v>9896147.0800000001</v>
       </c>
       <c r="G9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>39564273.32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>39565203.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="26" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="C10" s="27">
         <v>65887852.799999997</v>
@@ -13966,20 +13730,23 @@
         <v>2020</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>13201029.560000001</v>
+        <v>13192442.560000001</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>52686823.239999995</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>52695410.239999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="26" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="C11" s="27">
         <v>82314355.199999988</v>
@@ -13988,20 +13755,23 @@
         <v>2020</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16484743.039999999</v>
+        <v>16468834.039999999</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>65829612.159999989</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>65845521.159999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="26" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C12" s="27">
         <v>98740857.600000009</v>
@@ -14010,20 +13780,23 @@
         <v>2020</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19771015.520000003</v>
+        <v>19766972.520000003</v>
       </c>
       <c r="G12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>78969842.080000013</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1">
+        <v>78973885.080000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="C13" s="27">
         <v>115152576</v>
@@ -14032,20 +13805,23 @@
         <v>2020</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>23054692.200000003</v>
+        <v>23051927.200000003</v>
       </c>
       <c r="G13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>92097883.799999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>92100648.799999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="26" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C14" s="27">
         <v>131431238.40000001</v>
@@ -14054,20 +13830,23 @@
         <v>2020</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F14" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26294875.680000003</v>
+        <v>26291863.680000003</v>
       </c>
       <c r="G14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>105136362.72</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>105139374.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="26" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="C15" s="27">
         <v>146379340.80000001</v>
@@ -14076,20 +13855,23 @@
         <v>2017</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29278421.160000004</v>
+        <v>29280917.160000004</v>
       </c>
       <c r="G15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>117100919.64000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>117098423.64000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="26" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C16" s="27">
         <v>14965843.199999999</v>
@@ -14098,20 +13880,23 @@
         <v>2017</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F16" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>3016374.64</v>
+        <v>2994569.64</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>11949468.559999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>11971273.559999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="26" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="C17" s="27">
         <v>31392345.600000001</v>
@@ -14120,20 +13905,23 @@
         <v>2017</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F17" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>6280862.120000001</v>
+        <v>6303401.120000001</v>
       </c>
       <c r="G17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>25111483.48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>25088944.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="26" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="C18" s="27">
         <v>47818848</v>
@@ -14142,20 +13930,23 @@
         <v>2017</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F18" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>9576303.5999999996</v>
+        <v>9578370.5999999996</v>
       </c>
       <c r="G18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>38242544.399999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>38240477.399999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="26" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="C19" s="27">
         <v>64245350.399999999</v>
@@ -14164,20 +13955,23 @@
         <v>2017</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F19" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12872064.08</v>
+        <v>12861084.08</v>
       </c>
       <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>51373286.32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>51384266.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="26" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="C20" s="27">
         <v>80671852.799999997</v>
@@ -14186,20 +13980,23 @@
         <v>2017</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F20" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16156442.560000001</v>
+        <v>16142726.560000001</v>
       </c>
       <c r="G20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>64515410.239999995</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>64529126.239999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="26" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="C21" s="27">
         <v>97098355.199999988</v>
@@ -14208,20 +14005,23 @@
         <v>2017</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>19428329.039999999</v>
+        <v>19424316.039999999</v>
       </c>
       <c r="G21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>77670026.159999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>77674039.159999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="26" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="C22" s="27">
         <v>113524857.59999999</v>
@@ -14230,20 +14030,23 @@
         <v>2015</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22722901.52</v>
+        <v>22715629.52</v>
       </c>
       <c r="G22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>90801956.079999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>90809228.079999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="26" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="C23" s="27">
         <v>129936576</v>
@@ -14252,20 +14055,23 @@
         <v>2015</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>26003802.200000003</v>
+        <v>26010149.200000003</v>
       </c>
       <c r="G23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>103932773.8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>103926426.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="26" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="C24" s="27">
         <v>146215238.40000001</v>
@@ -14274,20 +14080,23 @@
         <v>2015</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>29251204.680000003</v>
+        <v>29254181.680000003</v>
       </c>
       <c r="G24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>116964033.72</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>116961056.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="26" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="C25" s="27">
         <v>28107340.800000001</v>
@@ -14296,20 +14105,23 @@
         <v>2015</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5627319.1600000001</v>
+        <v>5639456.1600000001</v>
       </c>
       <c r="G25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>22480021.640000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>22467884.640000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="26" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="C26" s="27">
         <v>44533843.200000003</v>
@@ -14318,20 +14130,23 @@
         <v>2015</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8921523.6400000006</v>
+        <v>8907903.6400000006</v>
       </c>
       <c r="G26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>35612319.560000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>35625939.560000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="26" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="C27" s="27">
         <v>60960345.599999987</v>
@@ -14340,20 +14155,23 @@
         <v>2015</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>12205664.119999997</v>
+        <v>12198630.119999997</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>48754681.479999989</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>48761715.479999989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="26" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C28" s="27">
         <v>77386848</v>
@@ -14362,20 +14180,23 @@
         <v>2015</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>15479990.600000001</v>
+        <v>15501753.600000001</v>
       </c>
       <c r="G28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>61906857.399999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>61885094.399999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="26" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C29" s="27">
         <v>93813350.399999991</v>
@@ -14384,20 +14205,23 @@
         <v>2015</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18776393.079999998</v>
+        <v>18783971.079999998</v>
       </c>
       <c r="G29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>75036957.319999993</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>75029379.319999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="26" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C30" s="27">
         <v>110239852.8</v>
@@ -14406,20 +14230,23 @@
         <v>2015</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>22053303.560000002</v>
+        <v>22066874.560000002</v>
       </c>
       <c r="G30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>88186549.239999995</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>88172978.239999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="26" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C31" s="27">
         <v>126666355.2</v>
@@ -14428,20 +14255,23 @@
         <v>2015</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>25333778.040000003</v>
+        <v>25352835.040000003</v>
       </c>
       <c r="G31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>101332577.16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>101313520.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="26" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="C32" s="27">
         <v>143092857.59999999</v>
@@ -14450,20 +14280,23 @@
         <v>2015</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>28624026.52</v>
+        <v>28622478.52</v>
       </c>
       <c r="G32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>114468831.08</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>114470379.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="26" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="C33" s="27">
         <v>26448576</v>
@@ -14472,20 +14305,23 @@
         <v>2015</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5294084.2</v>
+        <v>5298176.2</v>
       </c>
       <c r="G33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>21154491.800000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>21150399.800000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="26" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="C34" s="27">
         <v>42727238.399999999</v>
@@ -14494,20 +14330,23 @@
         <v>2015</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>8562852.6799999997</v>
+        <v>8548715.6799999997</v>
       </c>
       <c r="G34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>34164385.719999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>34178522.719999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="26" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="C35" s="27">
         <v>57675340.799999997</v>
@@ -14516,20 +14355,23 @@
         <v>2015</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>11551564.16</v>
+        <v>11556481.16</v>
       </c>
       <c r="G35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>46123776.640000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+        <v>46118859.640000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="26" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C36" s="27">
         <v>74101843.200000003</v>
@@ -14538,16 +14380,40 @@
         <v>2015</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>14845315.640000001</v>
+        <v>14831041.640000001</v>
       </c>
       <c r="G36" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>59256527.560000002</v>
-      </c>
+        <v>59270801.560000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="20"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="20"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="20"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="20"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="20"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="20"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14556,14 +14422,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:F40"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
@@ -14571,7 +14438,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="29" t="s">
         <v>25</v>
       </c>
@@ -14582,13 +14452,16 @@
         <v>94</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="29" t="s">
         <v>51</v>
       </c>
@@ -14606,7 +14479,10 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="29" t="s">
         <v>52</v>
       </c>
@@ -14624,7 +14500,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="29" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="C39" s="29">
         <v>6</v>
@@ -14642,7 +14518,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="29" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="C40" s="29">
         <v>7</v>
@@ -14698,13 +14574,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14712,7 +14588,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14724,10 +14600,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14749,10 +14625,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14773,10 +14649,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H4" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14797,10 +14673,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14821,10 +14697,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="H6" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14846,10 +14722,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14871,10 +14747,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14896,10 +14772,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H9" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14921,10 +14797,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H10" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14946,10 +14822,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="H11" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14971,7 +14847,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14993,10 +14869,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -15018,7 +14894,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -15041,7 +14917,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -15063,7 +14939,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15085,10 +14961,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -15110,7 +14986,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15132,7 +15008,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15154,7 +15030,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15177,7 +15053,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15199,7 +15075,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15221,7 +15097,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15243,7 +15119,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15265,7 +15141,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15287,7 +15163,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15309,7 +15185,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15331,10 +15207,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15356,10 +15232,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H29" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15381,7 +15257,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15403,7 +15279,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15426,7 +15302,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15448,10 +15324,10 @@
         <v>8</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15473,10 +15349,10 @@
         <v>15</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15498,10 +15374,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15523,10 +15399,10 @@
         <v>15</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H36" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15548,7 +15424,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15570,7 +15446,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15592,7 +15468,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15614,10 +15490,10 @@
         <v>14</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15639,10 +15515,10 @@
         <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15664,7 +15540,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15686,7 +15562,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15708,7 +15584,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15730,7 +15606,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15752,7 +15628,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15774,7 +15650,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15796,7 +15672,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15818,7 +15694,7 @@
         <v>12</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15840,7 +15716,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15862,7 +15738,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
